--- a/biology/Zoologie/Gordon_G._Gallup/Gordon_G._Gallup.xlsx
+++ b/biology/Zoologie/Gordon_G._Gallup/Gordon_G._Gallup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gordon G. Gallup, né en 1941, est un psychologue américain connu pour avoir conçu le test du miroir utilisé pour tester les aptitudes à la conscience de soi dans la psychologie animale et humaine.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait ses études de psychologie à l'université d'État de Washington, où il obtient son diplôme en 1963, et son master en 1966[1]. Puis il obtient son doctorat de psychologie expérimentale en 1968. Il enseigne à l'université Tulane de 1968 à 1975. Il est ensuite nommé professeur à l'université d'État de New York à Albany (SUNY Albany) en 1975[1]. Il est professeur émérite.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait ses études de psychologie à l'université d'État de Washington, où il obtient son diplôme en 1963, et son master en 1966. Puis il obtient son doctorat de psychologie expérimentale en 1968. Il enseigne à l'université Tulane de 1968 à 1975. Il est ensuite nommé professeur à l'université d'État de New York à Albany (SUNY Albany) en 1975. Il est professeur émérite.
 </t>
         </is>
       </c>
